--- a/src/test/resources/data/SignUpData.xlsx
+++ b/src/test/resources/data/SignUpData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IResource\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IResource\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BD63D6-E07B-432D-99B3-9528C889E38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B680EEC-93FE-484E-A3D0-98765047119A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/data/SignUpData.xlsx
+++ b/src/test/resources/data/SignUpData.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IResource\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenthituongvy/IdeaProjects/IResource/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B680EEC-93FE-484E-A3D0-98765047119A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A896656-27DD-C64E-94CD-9C6585B0CD0D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUpData" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Email</t>
   </si>
@@ -155,13 +156,19 @@
   </si>
   <si>
     <t>Abcdefg@132</t>
+  </si>
+  <si>
+    <t>vynguyen22@yopmail.com</t>
+  </si>
+  <si>
+    <t>Tuongvy@10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +321,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times Roman"/>
     </font>
   </fonts>
   <fills count="33">
@@ -613,7 +633,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -656,8 +676,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -669,8 +690,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -704,6 +727,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1026,20 +1050,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="37.5" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
@@ -1056,7 +1080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="22.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1073,7 +1097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="22.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1090,7 +1114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="22.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1107,7 +1131,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="22.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1148,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="22.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1141,7 +1165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="22.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1182,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="22.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1175,7 +1199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="22.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1192,7 +1216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="22.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1209,7 +1233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="22.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1226,14 +1250,14 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1245,4 +1269,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954C135E-D306-9042-976C-4140F80DE0B0}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="5" customFormat="1" ht="19">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B8202DEB-48B3-C64B-9614-7C59819E4F85}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{90A78E31-F2F0-3F42-A450-133FFB4B5C1E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>